--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B852E70-B0A5-4372-AD77-16BEFFB9A218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46EF180D-128B-401B-96FB-4B4B072FCF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A160DE7-8651-4887-85C4-5C6FE02D6934}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21263A2E-7818-4E84-B3BA-5F7211D0FD40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,835 +77,823 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>8,68%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>91,32%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A814DB7-0CE7-4A30-A772-C288E25A99DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6AF7FF-A2AB-4AA9-99E3-59F5C21BD7F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,13 +1769,13 @@
         <v>14324</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1790,13 @@
         <v>545764</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>444</v>
@@ -1820,10 +1808,10 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -1832,13 +1820,13 @@
         <v>1013496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1894,13 @@
         <v>64924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -1921,13 +1909,13 @@
         <v>140672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
@@ -1936,13 +1924,13 @@
         <v>205596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1942,16 @@
         <v>3146</v>
       </c>
       <c r="D14" s="7">
-        <v>3210601</v>
+        <v>3210602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3161</v>
@@ -1972,28 +1960,28 @@
         <v>3238526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>6307</v>
       </c>
       <c r="N14" s="7">
-        <v>6449126</v>
+        <v>6449127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +1993,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2023,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC02CFA-FF11-49BB-8C05-801440870B10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B54DEB2-9DF0-4A50-9311-D4CA5FD30784}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2180,13 @@
         <v>25770</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -2207,13 +2195,13 @@
         <v>134996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -2222,13 +2210,13 @@
         <v>160766</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2231,13 @@
         <v>944820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>1118</v>
@@ -2258,13 +2246,13 @@
         <v>1197595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>2000</v>
@@ -2273,13 +2261,13 @@
         <v>2142415</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2335,13 @@
         <v>33993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -2362,13 +2350,13 @@
         <v>74526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2377,13 +2365,13 @@
         <v>108519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2386,13 @@
         <v>1926029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1559</v>
@@ -2413,13 +2401,13 @@
         <v>1676309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>3381</v>
@@ -2428,13 +2416,13 @@
         <v>3602338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2490,13 @@
         <v>9229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2517,13 +2505,13 @@
         <v>12328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2532,13 +2520,13 @@
         <v>21557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2541,13 @@
         <v>471103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -2568,13 +2556,13 @@
         <v>445326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2583,13 +2571,13 @@
         <v>916429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2645,13 @@
         <v>68991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2672,13 +2660,13 @@
         <v>221850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -2687,13 +2675,13 @@
         <v>290842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2696,13 @@
         <v>3341953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3078</v>
@@ -2723,13 +2711,13 @@
         <v>3319230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6213</v>
@@ -2738,13 +2726,13 @@
         <v>6661182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD997270-5C02-4B03-8D0C-6D883C4D073B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92532AD-A8C1-4029-A30A-93899B043052}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2931,13 @@
         <v>43901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>134</v>
@@ -2958,13 +2946,13 @@
         <v>150490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2973,13 +2961,13 @@
         <v>194391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2982,13 @@
         <v>710446</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>758</v>
@@ -3009,13 +2997,13 @@
         <v>844170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>1476</v>
@@ -3024,13 +3012,13 @@
         <v>1554616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3086,13 @@
         <v>34760</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -3113,13 +3101,13 @@
         <v>96179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -3128,13 +3116,13 @@
         <v>130939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>2041625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>1821</v>
@@ -3164,13 +3152,13 @@
         <v>1892121</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>3741</v>
@@ -3179,13 +3167,13 @@
         <v>3933746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3241,13 @@
         <v>10310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3268,13 +3256,13 @@
         <v>18833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3283,13 +3271,13 @@
         <v>29143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3292,13 @@
         <v>536576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -3319,13 +3307,13 @@
         <v>530307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3334,13 +3322,13 @@
         <v>1066883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3396,13 @@
         <v>88971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>238</v>
@@ -3423,13 +3411,13 @@
         <v>265502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -3438,13 +3426,13 @@
         <v>354474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3447,13 @@
         <v>3288647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>3088</v>
@@ -3474,13 +3462,13 @@
         <v>3266598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>6218</v>
@@ -3489,13 +3477,13 @@
         <v>6555244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DB37DB-84E5-4333-97D8-5245F0416231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1DB463-0A94-4593-B3DA-623277CFA7B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3682,13 @@
         <v>64179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>323</v>
@@ -3709,13 +3697,13 @@
         <v>188402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>414</v>
@@ -3724,13 +3712,13 @@
         <v>252581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>475863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>1099</v>
@@ -3760,13 +3748,13 @@
         <v>643007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>1697</v>
@@ -3775,13 +3763,13 @@
         <v>1118871</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>86080</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -3864,13 +3852,13 @@
         <v>167258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>367</v>
@@ -3879,13 +3867,13 @@
         <v>253338</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,28 +3888,28 @@
         <v>2075942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>2653</v>
       </c>
       <c r="I8" s="7">
-        <v>2081538</v>
+        <v>2081537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>4545</v>
@@ -3930,13 +3918,13 @@
         <v>4157479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3951,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +3992,13 @@
         <v>26854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4019,13 +4007,13 @@
         <v>40928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4034,13 +4022,13 @@
         <v>67782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>646185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>940</v>
@@ -4070,13 +4058,13 @@
         <v>672799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4085,13 +4073,13 @@
         <v>1318984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4147,13 @@
         <v>177114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
@@ -4174,13 +4162,13 @@
         <v>396588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -4189,13 +4177,13 @@
         <v>573701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>3197990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
@@ -4225,28 +4213,28 @@
         <v>3397344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>7833</v>
       </c>
       <c r="N14" s="7">
-        <v>6595335</v>
+        <v>6595334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4276,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7169036</v>
+        <v>7169035</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4302,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46EF180D-128B-401B-96FB-4B4B072FCF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73E3A3-5A76-45E7-BE2B-EA06FAE51FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21263A2E-7818-4E84-B3BA-5F7211D0FD40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D54A1BB-27D3-4C6A-BD18-7861DB2B453E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,556 +77,586 @@
     <t>3,77%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -635,145 +665,151 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -1305,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6AF7FF-A2AB-4AA9-99E3-59F5C21BD7F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CD0C3F-88B3-4FCC-9E6E-FFE50C2812EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,13 +1805,13 @@
         <v>14324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1826,13 @@
         <v>545764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>444</v>
@@ -1808,10 +1844,10 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -1820,13 +1856,13 @@
         <v>1013496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1930,13 @@
         <v>64924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -1909,13 +1945,13 @@
         <v>140672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
@@ -1924,13 +1960,13 @@
         <v>205596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,16 +1978,16 @@
         <v>3146</v>
       </c>
       <c r="D14" s="7">
-        <v>3210602</v>
+        <v>3210601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3161</v>
@@ -1960,13 +1996,13 @@
         <v>3238526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6307</v>
@@ -1975,13 +2011,13 @@
         <v>6449127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +2029,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2037,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B54DEB2-9DF0-4A50-9311-D4CA5FD30784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660AB819-24A9-495C-B812-7B924B101ACF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2216,13 @@
         <v>25770</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -2195,13 +2231,13 @@
         <v>134996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -2210,13 +2246,13 @@
         <v>160766</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2267,13 @@
         <v>944820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>1118</v>
@@ -2246,13 +2282,13 @@
         <v>1197595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>2000</v>
@@ -2261,13 +2297,13 @@
         <v>2142415</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2371,13 @@
         <v>33993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -2350,13 +2386,13 @@
         <v>74526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2365,13 +2401,13 @@
         <v>108519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2422,13 @@
         <v>1926029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1559</v>
@@ -2401,13 +2437,13 @@
         <v>1676309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3381</v>
@@ -2416,13 +2452,13 @@
         <v>3602338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2526,13 @@
         <v>9229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2505,13 +2541,13 @@
         <v>12328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2520,13 +2556,13 @@
         <v>21557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2577,13 @@
         <v>471103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -2556,13 +2592,13 @@
         <v>445326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2571,13 +2607,13 @@
         <v>916429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2681,13 @@
         <v>68991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2660,13 +2696,13 @@
         <v>221850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -2675,13 +2711,13 @@
         <v>290842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2732,13 @@
         <v>3341953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3078</v>
@@ -2711,13 +2747,13 @@
         <v>3319230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>6213</v>
@@ -2726,13 +2762,13 @@
         <v>6661182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92532AD-A8C1-4029-A30A-93899B043052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73686FF-A22D-4C24-A041-B95BCDD7A409}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2967,13 @@
         <v>43901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>134</v>
@@ -2946,13 +2982,13 @@
         <v>150490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2961,13 +2997,13 @@
         <v>194391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3018,13 @@
         <v>710446</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>758</v>
@@ -2997,13 +3033,13 @@
         <v>844170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1476</v>
@@ -3012,13 +3048,13 @@
         <v>1554616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3122,13 @@
         <v>34760</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -3101,13 +3137,13 @@
         <v>96179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -3116,13 +3152,13 @@
         <v>130939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3173,13 @@
         <v>2041625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1821</v>
@@ -3152,13 +3188,13 @@
         <v>1892121</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>3741</v>
@@ -3167,13 +3203,13 @@
         <v>3933746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3277,13 @@
         <v>10310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3256,13 +3292,13 @@
         <v>18833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3271,13 +3307,13 @@
         <v>29143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3328,13 @@
         <v>536576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -3307,13 +3343,13 @@
         <v>530307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3322,13 +3358,13 @@
         <v>1066883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3432,13 @@
         <v>88971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>238</v>
@@ -3411,13 +3447,13 @@
         <v>265502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -3426,13 +3462,13 @@
         <v>354474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3483,13 @@
         <v>3288647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>3088</v>
@@ -3462,13 +3498,13 @@
         <v>3266598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>6218</v>
@@ -3477,13 +3513,13 @@
         <v>6555244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1DB463-0A94-4593-B3DA-623277CFA7B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1425C974-5693-4568-91B6-E08495C85F24}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3718,13 @@
         <v>64179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>323</v>
@@ -3697,13 +3733,13 @@
         <v>188402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>414</v>
@@ -3712,13 +3748,13 @@
         <v>252581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3769,13 @@
         <v>475863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>1099</v>
@@ -3748,13 +3784,13 @@
         <v>643007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1697</v>
@@ -3763,13 +3799,13 @@
         <v>1118871</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3873,13 @@
         <v>86080</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -3852,13 +3888,13 @@
         <v>167258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>367</v>
@@ -3867,13 +3903,13 @@
         <v>253338</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3924,13 @@
         <v>2075942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>2653</v>
@@ -3903,13 +3939,13 @@
         <v>2081537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>4545</v>
@@ -3918,13 +3954,13 @@
         <v>4157479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4028,13 @@
         <v>26854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4007,13 +4043,13 @@
         <v>40928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4022,13 +4058,13 @@
         <v>67782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4079,13 @@
         <v>646185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>940</v>
@@ -4058,13 +4094,13 @@
         <v>672799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4073,13 +4109,13 @@
         <v>1318984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4183,13 @@
         <v>177114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
@@ -4162,13 +4198,13 @@
         <v>396588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -4177,13 +4213,13 @@
         <v>573701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4234,13 @@
         <v>3197990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
@@ -4213,13 +4249,13 @@
         <v>3397344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7833</v>
@@ -4228,13 +4264,13 @@
         <v>6595334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73E3A3-5A76-45E7-BE2B-EA06FAE51FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8197C16E-9AEE-4C4C-8AC0-4498AC109382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D54A1BB-27D3-4C6A-BD18-7861DB2B453E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{404D005B-234C-4D79-AD20-5D31E5792CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,23%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -149,787 +149,763 @@
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>8,68%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>91,32%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CD0C3F-88B3-4FCC-9E6E-FFE50C2812EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6091B4-5C86-4193-91A2-4736BFACA12E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,7 +1984,7 @@
         <v>6307</v>
       </c>
       <c r="N14" s="7">
-        <v>6449127</v>
+        <v>6449126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2059,7 +2035,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660AB819-24A9-495C-B812-7B924B101ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27E043-0C0A-475A-A8A4-AD4AFD18AF73}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2219,10 +2195,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -2231,13 +2207,13 @@
         <v>134996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -2246,13 +2222,13 @@
         <v>160766</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2243,13 @@
         <v>944820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1118</v>
@@ -2282,13 +2258,13 @@
         <v>1197595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>2000</v>
@@ -2297,13 +2273,13 @@
         <v>2142415</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2347,13 @@
         <v>33993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -2386,13 +2362,13 @@
         <v>74526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2401,13 +2377,13 @@
         <v>108519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,10 +2401,10 @@
         <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1559</v>
@@ -2437,13 +2413,13 @@
         <v>1676309</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3381</v>
@@ -2452,13 +2428,13 @@
         <v>3602338</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2502,13 @@
         <v>9229</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2541,13 +2517,13 @@
         <v>12328</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2556,13 +2532,13 @@
         <v>21557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2553,13 @@
         <v>471103</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -2592,13 +2568,13 @@
         <v>445326</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2607,7 +2583,7 @@
         <v>916429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>135</v>
@@ -2843,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73686FF-A22D-4C24-A041-B95BCDD7A409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D11BF-9049-418A-8A6F-C150AED68C70}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3128,7 +3104,7 @@
         <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -3176,7 +3152,7 @@
         <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>183</v>
@@ -3358,7 +3334,7 @@
         <v>1066883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>204</v>
@@ -3594,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1425C974-5693-4568-91B6-E08495C85F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF0468-5285-4011-A347-8836C234DE64}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,10 +3852,10 @@
         <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
@@ -3888,13 +3864,13 @@
         <v>167258</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>367</v>
@@ -3903,13 +3879,13 @@
         <v>253338</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3900,28 @@
         <v>2075942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>2653</v>
       </c>
       <c r="I8" s="7">
-        <v>2081537</v>
+        <v>2081538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>4545</v>
@@ -3954,13 +3930,13 @@
         <v>4157479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4004,13 @@
         <v>26854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4043,13 +4019,13 @@
         <v>40928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4058,13 +4034,13 @@
         <v>67782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4055,13 @@
         <v>646185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>940</v>
@@ -4094,13 +4070,13 @@
         <v>672799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4109,13 +4085,13 @@
         <v>1318984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4159,13 @@
         <v>177114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
@@ -4198,13 +4174,13 @@
         <v>396588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -4213,13 +4189,13 @@
         <v>573701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>3197990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
@@ -4249,28 +4225,28 @@
         <v>3397344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>7833</v>
       </c>
       <c r="N14" s="7">
-        <v>6595334</v>
+        <v>6595335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4288,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7169035</v>
+        <v>7169036</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8197C16E-9AEE-4C4C-8AC0-4498AC109382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2760AEDA-E533-4F20-8612-7F3BFB0A3721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{404D005B-234C-4D79-AD20-5D31E5792CD6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98FF44E6-3082-4909-95B5-1627A3B252B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -716,196 +716,202 @@
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6091B4-5C86-4193-91A2-4736BFACA12E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91543763-FD65-4EEE-94A8-7930626BA2F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1525,7 @@
         <v>2197</v>
       </c>
       <c r="N5" s="7">
-        <v>2215223</v>
+        <v>2215222</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1570,7 +1576,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1680,7 @@
         <v>3145</v>
       </c>
       <c r="N8" s="7">
-        <v>3220410</v>
+        <v>3220409</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1725,7 +1731,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1969,7 +1975,7 @@
         <v>3161</v>
       </c>
       <c r="I14" s="7">
-        <v>3238526</v>
+        <v>3238525</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2020,7 +2026,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27E043-0C0A-475A-A8A4-AD4AFD18AF73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C3B3A-D33E-4D41-B2AD-E8D6AEE9E65A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2819,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D11BF-9049-418A-8A6F-C150AED68C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09CD8E-F101-419F-BD52-EC16E2519980}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3337,7 @@
         <v>1001</v>
       </c>
       <c r="N11" s="7">
-        <v>1066883</v>
+        <v>1066884</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>96</v>
@@ -3382,7 +3388,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3570,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF0468-5285-4011-A347-8836C234DE64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C125E9-5F99-4B5B-A50C-AB4A06241C2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,7 +3697,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>64179</v>
+        <v>60131</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3706,7 +3712,7 @@
         <v>323</v>
       </c>
       <c r="I4" s="7">
-        <v>188402</v>
+        <v>168449</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3721,7 +3727,7 @@
         <v>414</v>
       </c>
       <c r="N4" s="7">
-        <v>252581</v>
+        <v>228579</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3742,7 +3748,7 @@
         <v>598</v>
       </c>
       <c r="D5" s="7">
-        <v>475863</v>
+        <v>453321</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -3757,7 +3763,7 @@
         <v>1099</v>
       </c>
       <c r="I5" s="7">
-        <v>643007</v>
+        <v>583122</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -3772,7 +3778,7 @@
         <v>1697</v>
       </c>
       <c r="N5" s="7">
-        <v>1118871</v>
+        <v>1036444</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3793,7 +3799,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3814,7 @@
         <v>1422</v>
       </c>
       <c r="I6" s="7">
-        <v>831409</v>
+        <v>751571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3823,7 +3829,7 @@
         <v>2111</v>
       </c>
       <c r="N6" s="7">
-        <v>1371452</v>
+        <v>1265023</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3846,46 +3852,46 @@
         <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>86080</v>
+        <v>81622</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>267</v>
       </c>
       <c r="I7" s="7">
-        <v>167258</v>
+        <v>153600</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>253338</v>
+        <v>235222</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,46 +3903,46 @@
         <v>1892</v>
       </c>
       <c r="D8" s="7">
-        <v>2075942</v>
+        <v>2208705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>2653</v>
       </c>
       <c r="I8" s="7">
-        <v>2081538</v>
+        <v>2083545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>4545</v>
       </c>
       <c r="N8" s="7">
-        <v>4157479</v>
+        <v>4292250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3954,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3969,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3978,7 +3984,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4001,46 +4007,46 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>26854</v>
+        <v>26030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>40928</v>
+        <v>37280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>67782</v>
+        <v>63310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,46 +4058,46 @@
         <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>646185</v>
+        <v>620593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>672799</v>
+        <v>623023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
       </c>
       <c r="N11" s="7">
-        <v>1318984</v>
+        <v>1243616</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4109,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4118,7 +4124,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4133,7 +4139,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386766</v>
+        <v>1306926</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4156,46 +4162,46 @@
         <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>177114</v>
+        <v>167783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
       </c>
       <c r="I13" s="7">
-        <v>396588</v>
+        <v>359329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
       </c>
       <c r="N13" s="7">
-        <v>573701</v>
+        <v>527112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,46 +4213,46 @@
         <v>3141</v>
       </c>
       <c r="D14" s="7">
-        <v>3197990</v>
+        <v>3282619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
       </c>
       <c r="I14" s="7">
-        <v>3397344</v>
+        <v>3289689</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>7833</v>
       </c>
       <c r="N14" s="7">
-        <v>6595335</v>
+        <v>6572309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4264,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4273,7 +4279,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3793932</v>
+        <v>3649018</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4294,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7169036</v>
+        <v>7099421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
